--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_151.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_151.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32648-d77584-Reviews-Courtyard_by_Marriott_Long_Beach_Downtown-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>425</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>447</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Courtyard-By-Marriott-Long-Beach-Downtown.h9517.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_151.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_151.xlsx
@@ -6678,7 +6678,7 @@
         <v>166</v>
       </c>
       <c r="B2" t="n">
-        <v>132407</v>
+        <v>163202</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -6743,7 +6743,7 @@
         <v>166</v>
       </c>
       <c r="B3" t="n">
-        <v>132408</v>
+        <v>163203</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
@@ -6879,7 +6879,7 @@
         <v>166</v>
       </c>
       <c r="B5" t="n">
-        <v>132409</v>
+        <v>163204</v>
       </c>
       <c r="C5" t="s">
         <v>75</v>
@@ -7074,7 +7074,7 @@
         <v>166</v>
       </c>
       <c r="B8" t="n">
-        <v>132410</v>
+        <v>163205</v>
       </c>
       <c r="C8" t="s">
         <v>103</v>
@@ -7210,7 +7210,7 @@
         <v>166</v>
       </c>
       <c r="B10" t="n">
-        <v>132411</v>
+        <v>163206</v>
       </c>
       <c r="C10" t="s">
         <v>122</v>
@@ -7279,7 +7279,7 @@
         <v>166</v>
       </c>
       <c r="B11" t="n">
-        <v>132412</v>
+        <v>163207</v>
       </c>
       <c r="C11" t="s">
         <v>129</v>
@@ -7344,7 +7344,7 @@
         <v>166</v>
       </c>
       <c r="B12" t="n">
-        <v>132413</v>
+        <v>163208</v>
       </c>
       <c r="C12" t="s">
         <v>139</v>
@@ -7409,7 +7409,7 @@
         <v>166</v>
       </c>
       <c r="B13" t="n">
-        <v>132414</v>
+        <v>163209</v>
       </c>
       <c r="C13" t="s">
         <v>150</v>
@@ -7474,7 +7474,7 @@
         <v>166</v>
       </c>
       <c r="B14" t="n">
-        <v>132415</v>
+        <v>163210</v>
       </c>
       <c r="C14" t="s">
         <v>159</v>
@@ -7539,7 +7539,7 @@
         <v>166</v>
       </c>
       <c r="B15" t="n">
-        <v>132416</v>
+        <v>163211</v>
       </c>
       <c r="C15" t="s">
         <v>169</v>
@@ -7604,7 +7604,7 @@
         <v>166</v>
       </c>
       <c r="B16" t="n">
-        <v>132417</v>
+        <v>163212</v>
       </c>
       <c r="C16" t="s">
         <v>178</v>
@@ -7746,7 +7746,7 @@
         <v>166</v>
       </c>
       <c r="B18" t="n">
-        <v>132418</v>
+        <v>163213</v>
       </c>
       <c r="C18" t="s">
         <v>197</v>
@@ -7811,7 +7811,7 @@
         <v>166</v>
       </c>
       <c r="B19" t="n">
-        <v>132419</v>
+        <v>163214</v>
       </c>
       <c r="C19" t="s">
         <v>206</v>
@@ -7876,7 +7876,7 @@
         <v>166</v>
       </c>
       <c r="B20" t="n">
-        <v>132420</v>
+        <v>163215</v>
       </c>
       <c r="C20" t="s">
         <v>213</v>
@@ -7941,7 +7941,7 @@
         <v>166</v>
       </c>
       <c r="B21" t="n">
-        <v>132421</v>
+        <v>163216</v>
       </c>
       <c r="C21" t="s">
         <v>222</v>
@@ -8010,7 +8010,7 @@
         <v>166</v>
       </c>
       <c r="B22" t="n">
-        <v>132422</v>
+        <v>163217</v>
       </c>
       <c r="C22" t="s">
         <v>231</v>
@@ -8081,7 +8081,7 @@
         <v>166</v>
       </c>
       <c r="B23" t="n">
-        <v>132423</v>
+        <v>163218</v>
       </c>
       <c r="C23" t="s">
         <v>241</v>
@@ -8150,7 +8150,7 @@
         <v>166</v>
       </c>
       <c r="B24" t="n">
-        <v>132424</v>
+        <v>163219</v>
       </c>
       <c r="C24" t="s">
         <v>252</v>
@@ -8221,7 +8221,7 @@
         <v>166</v>
       </c>
       <c r="B25" t="n">
-        <v>132425</v>
+        <v>163220</v>
       </c>
       <c r="C25" t="s">
         <v>262</v>
@@ -8292,7 +8292,7 @@
         <v>166</v>
       </c>
       <c r="B26" t="n">
-        <v>132426</v>
+        <v>163221</v>
       </c>
       <c r="C26" t="s">
         <v>269</v>
@@ -8363,7 +8363,7 @@
         <v>166</v>
       </c>
       <c r="B27" t="n">
-        <v>132427</v>
+        <v>163222</v>
       </c>
       <c r="C27" t="s">
         <v>279</v>
@@ -8424,7 +8424,7 @@
         <v>166</v>
       </c>
       <c r="B28" t="n">
-        <v>132428</v>
+        <v>163223</v>
       </c>
       <c r="C28" t="s">
         <v>285</v>
@@ -8485,7 +8485,7 @@
         <v>166</v>
       </c>
       <c r="B29" t="n">
-        <v>132429</v>
+        <v>163224</v>
       </c>
       <c r="C29" t="s">
         <v>294</v>
@@ -8550,7 +8550,7 @@
         <v>166</v>
       </c>
       <c r="B30" t="n">
-        <v>132430</v>
+        <v>163225</v>
       </c>
       <c r="C30" t="s">
         <v>303</v>
@@ -8619,7 +8619,7 @@
         <v>166</v>
       </c>
       <c r="B31" t="n">
-        <v>132431</v>
+        <v>163226</v>
       </c>
       <c r="C31" t="s">
         <v>312</v>
@@ -8690,7 +8690,7 @@
         <v>166</v>
       </c>
       <c r="B32" t="n">
-        <v>132432</v>
+        <v>163227</v>
       </c>
       <c r="C32" t="s">
         <v>320</v>
@@ -8832,7 +8832,7 @@
         <v>166</v>
       </c>
       <c r="B34" t="n">
-        <v>132433</v>
+        <v>163228</v>
       </c>
       <c r="C34" t="s">
         <v>340</v>
@@ -8903,7 +8903,7 @@
         <v>166</v>
       </c>
       <c r="B35" t="n">
-        <v>132434</v>
+        <v>163229</v>
       </c>
       <c r="C35" t="s">
         <v>348</v>
@@ -8968,7 +8968,7 @@
         <v>166</v>
       </c>
       <c r="B36" t="n">
-        <v>132435</v>
+        <v>163230</v>
       </c>
       <c r="C36" t="s">
         <v>358</v>
@@ -9102,7 +9102,7 @@
         <v>166</v>
       </c>
       <c r="B38" t="n">
-        <v>132436</v>
+        <v>163231</v>
       </c>
       <c r="C38" t="s">
         <v>374</v>
@@ -9173,7 +9173,7 @@
         <v>166</v>
       </c>
       <c r="B39" t="n">
-        <v>132437</v>
+        <v>163232</v>
       </c>
       <c r="C39" t="s">
         <v>383</v>
@@ -9378,7 +9378,7 @@
         <v>166</v>
       </c>
       <c r="B42" t="n">
-        <v>132438</v>
+        <v>163233</v>
       </c>
       <c r="C42" t="s">
         <v>408</v>
@@ -9443,7 +9443,7 @@
         <v>166</v>
       </c>
       <c r="B43" t="n">
-        <v>132439</v>
+        <v>163234</v>
       </c>
       <c r="C43" t="s">
         <v>415</v>
@@ -9577,7 +9577,7 @@
         <v>166</v>
       </c>
       <c r="B45" t="n">
-        <v>132440</v>
+        <v>163235</v>
       </c>
       <c r="C45" t="s">
         <v>432</v>
@@ -9642,7 +9642,7 @@
         <v>166</v>
       </c>
       <c r="B46" t="n">
-        <v>132441</v>
+        <v>163236</v>
       </c>
       <c r="C46" t="s">
         <v>441</v>
@@ -9713,7 +9713,7 @@
         <v>166</v>
       </c>
       <c r="B47" t="n">
-        <v>132442</v>
+        <v>163237</v>
       </c>
       <c r="C47" t="s">
         <v>450</v>
@@ -9784,7 +9784,7 @@
         <v>166</v>
       </c>
       <c r="B48" t="n">
-        <v>132443</v>
+        <v>163238</v>
       </c>
       <c r="C48" t="s">
         <v>460</v>
@@ -9926,7 +9926,7 @@
         <v>166</v>
       </c>
       <c r="B50" t="n">
-        <v>132444</v>
+        <v>163239</v>
       </c>
       <c r="C50" t="s">
         <v>479</v>
@@ -10125,7 +10125,7 @@
         <v>166</v>
       </c>
       <c r="B53" t="n">
-        <v>132445</v>
+        <v>163240</v>
       </c>
       <c r="C53" t="s">
         <v>502</v>
@@ -10263,7 +10263,7 @@
         <v>166</v>
       </c>
       <c r="B55" t="n">
-        <v>132446</v>
+        <v>163241</v>
       </c>
       <c r="C55" t="s">
         <v>521</v>
@@ -10468,7 +10468,7 @@
         <v>166</v>
       </c>
       <c r="B58" t="n">
-        <v>132447</v>
+        <v>163242</v>
       </c>
       <c r="C58" t="s">
         <v>546</v>
@@ -10608,7 +10608,7 @@
         <v>166</v>
       </c>
       <c r="B60" t="n">
-        <v>132448</v>
+        <v>163243</v>
       </c>
       <c r="C60" t="s">
         <v>565</v>
@@ -10673,7 +10673,7 @@
         <v>166</v>
       </c>
       <c r="B61" t="n">
-        <v>132449</v>
+        <v>163244</v>
       </c>
       <c r="C61" t="s">
         <v>574</v>
@@ -10945,7 +10945,7 @@
         <v>166</v>
       </c>
       <c r="B65" t="n">
-        <v>132450</v>
+        <v>163245</v>
       </c>
       <c r="C65" t="s">
         <v>607</v>
@@ -11010,7 +11010,7 @@
         <v>166</v>
       </c>
       <c r="B66" t="n">
-        <v>132451</v>
+        <v>163246</v>
       </c>
       <c r="C66" t="s">
         <v>616</v>
@@ -11079,7 +11079,7 @@
         <v>166</v>
       </c>
       <c r="B67" t="n">
-        <v>132452</v>
+        <v>163247</v>
       </c>
       <c r="C67" t="s">
         <v>624</v>
@@ -11219,7 +11219,7 @@
         <v>166</v>
       </c>
       <c r="B69" t="n">
-        <v>132453</v>
+        <v>163248</v>
       </c>
       <c r="C69" t="s">
         <v>643</v>
@@ -11290,7 +11290,7 @@
         <v>166</v>
       </c>
       <c r="B70" t="n">
-        <v>132454</v>
+        <v>163249</v>
       </c>
       <c r="C70" t="s">
         <v>652</v>
@@ -11359,7 +11359,7 @@
         <v>166</v>
       </c>
       <c r="B71" t="n">
-        <v>132455</v>
+        <v>163250</v>
       </c>
       <c r="C71" t="s">
         <v>662</v>
@@ -11485,7 +11485,7 @@
         <v>166</v>
       </c>
       <c r="B73" t="n">
-        <v>132456</v>
+        <v>163251</v>
       </c>
       <c r="C73" t="s">
         <v>679</v>
@@ -11627,7 +11627,7 @@
         <v>166</v>
       </c>
       <c r="B75" t="n">
-        <v>132457</v>
+        <v>163252</v>
       </c>
       <c r="C75" t="s">
         <v>699</v>
@@ -11828,7 +11828,7 @@
         <v>166</v>
       </c>
       <c r="B78" t="n">
-        <v>132458</v>
+        <v>163253</v>
       </c>
       <c r="C78" t="s">
         <v>722</v>
@@ -11897,7 +11897,7 @@
         <v>166</v>
       </c>
       <c r="B79" t="n">
-        <v>132459</v>
+        <v>163254</v>
       </c>
       <c r="C79" t="s">
         <v>729</v>
@@ -12031,7 +12031,7 @@
         <v>166</v>
       </c>
       <c r="B81" t="n">
-        <v>132460</v>
+        <v>163255</v>
       </c>
       <c r="C81" t="s">
         <v>747</v>
@@ -12157,7 +12157,7 @@
         <v>166</v>
       </c>
       <c r="B83" t="n">
-        <v>132461</v>
+        <v>163256</v>
       </c>
       <c r="C83" t="s">
         <v>760</v>
@@ -12358,7 +12358,7 @@
         <v>166</v>
       </c>
       <c r="B86" t="n">
-        <v>132462</v>
+        <v>163257</v>
       </c>
       <c r="C86" t="s">
         <v>784</v>
@@ -12423,7 +12423,7 @@
         <v>166</v>
       </c>
       <c r="B87" t="n">
-        <v>132463</v>
+        <v>163258</v>
       </c>
       <c r="C87" t="s">
         <v>791</v>
@@ -12488,7 +12488,7 @@
         <v>166</v>
       </c>
       <c r="B88" t="n">
-        <v>132464</v>
+        <v>146920</v>
       </c>
       <c r="C88" t="s">
         <v>798</v>
@@ -12677,7 +12677,7 @@
         <v>166</v>
       </c>
       <c r="B91" t="n">
-        <v>132465</v>
+        <v>163259</v>
       </c>
       <c r="C91" t="s">
         <v>818</v>
@@ -12878,7 +12878,7 @@
         <v>166</v>
       </c>
       <c r="B94" t="n">
-        <v>132466</v>
+        <v>163260</v>
       </c>
       <c r="C94" t="s">
         <v>840</v>
@@ -12943,7 +12943,7 @@
         <v>166</v>
       </c>
       <c r="B95" t="n">
-        <v>132467</v>
+        <v>163261</v>
       </c>
       <c r="C95" t="s">
         <v>849</v>
@@ -13075,7 +13075,7 @@
         <v>166</v>
       </c>
       <c r="B97" t="n">
-        <v>132468</v>
+        <v>163262</v>
       </c>
       <c r="C97" t="s">
         <v>864</v>
@@ -13136,7 +13136,7 @@
         <v>166</v>
       </c>
       <c r="B98" t="n">
-        <v>132469</v>
+        <v>163263</v>
       </c>
       <c r="C98" t="s">
         <v>871</v>
@@ -13205,7 +13205,7 @@
         <v>166</v>
       </c>
       <c r="B99" t="n">
-        <v>132470</v>
+        <v>163264</v>
       </c>
       <c r="C99" t="s">
         <v>881</v>
@@ -13276,7 +13276,7 @@
         <v>166</v>
       </c>
       <c r="B100" t="n">
-        <v>132471</v>
+        <v>163265</v>
       </c>
       <c r="C100" t="s">
         <v>890</v>
@@ -13337,7 +13337,7 @@
         <v>166</v>
       </c>
       <c r="B101" t="n">
-        <v>132472</v>
+        <v>163266</v>
       </c>
       <c r="C101" t="s">
         <v>896</v>
@@ -13402,7 +13402,7 @@
         <v>166</v>
       </c>
       <c r="B102" t="n">
-        <v>132473</v>
+        <v>163267</v>
       </c>
       <c r="C102" t="s">
         <v>906</v>
@@ -13473,7 +13473,7 @@
         <v>166</v>
       </c>
       <c r="B103" t="n">
-        <v>132474</v>
+        <v>163268</v>
       </c>
       <c r="C103" t="s">
         <v>916</v>
@@ -13538,7 +13538,7 @@
         <v>166</v>
       </c>
       <c r="B104" t="n">
-        <v>132475</v>
+        <v>163269</v>
       </c>
       <c r="C104" t="s">
         <v>922</v>
@@ -13605,7 +13605,7 @@
         <v>166</v>
       </c>
       <c r="B105" t="n">
-        <v>132476</v>
+        <v>163270</v>
       </c>
       <c r="C105" t="s">
         <v>928</v>
@@ -13662,7 +13662,7 @@
         <v>166</v>
       </c>
       <c r="B106" t="n">
-        <v>132477</v>
+        <v>163271</v>
       </c>
       <c r="C106" t="s">
         <v>934</v>
@@ -13727,7 +13727,7 @@
         <v>166</v>
       </c>
       <c r="B107" t="n">
-        <v>132478</v>
+        <v>163272</v>
       </c>
       <c r="C107" t="s">
         <v>941</v>
@@ -13849,7 +13849,7 @@
         <v>166</v>
       </c>
       <c r="B109" t="n">
-        <v>132479</v>
+        <v>163273</v>
       </c>
       <c r="C109" t="s">
         <v>954</v>
@@ -14178,7 +14178,7 @@
         <v>166</v>
       </c>
       <c r="B114" t="n">
-        <v>132480</v>
+        <v>163274</v>
       </c>
       <c r="C114" t="s">
         <v>991</v>
@@ -14245,7 +14245,7 @@
         <v>166</v>
       </c>
       <c r="B115" t="n">
-        <v>132481</v>
+        <v>163275</v>
       </c>
       <c r="C115" t="s">
         <v>999</v>
@@ -14373,7 +14373,7 @@
         <v>166</v>
       </c>
       <c r="B117" t="n">
-        <v>132482</v>
+        <v>163276</v>
       </c>
       <c r="C117" t="s">
         <v>1011</v>
@@ -14438,7 +14438,7 @@
         <v>166</v>
       </c>
       <c r="B118" t="n">
-        <v>132483</v>
+        <v>163277</v>
       </c>
       <c r="C118" t="s">
         <v>1019</v>
@@ -14499,7 +14499,7 @@
         <v>166</v>
       </c>
       <c r="B119" t="n">
-        <v>132484</v>
+        <v>163278</v>
       </c>
       <c r="C119" t="s">
         <v>1026</v>
@@ -14761,7 +14761,7 @@
         <v>166</v>
       </c>
       <c r="B123" t="n">
-        <v>132485</v>
+        <v>163279</v>
       </c>
       <c r="C123" t="s">
         <v>1050</v>
@@ -14891,7 +14891,7 @@
         <v>166</v>
       </c>
       <c r="B125" t="n">
-        <v>132486</v>
+        <v>163280</v>
       </c>
       <c r="C125" t="s">
         <v>1062</v>
@@ -14958,7 +14958,7 @@
         <v>166</v>
       </c>
       <c r="B126" t="n">
-        <v>132487</v>
+        <v>163281</v>
       </c>
       <c r="C126" t="s">
         <v>1068</v>
@@ -15023,7 +15023,7 @@
         <v>166</v>
       </c>
       <c r="B127" t="n">
-        <v>132488</v>
+        <v>163282</v>
       </c>
       <c r="C127" t="s">
         <v>1074</v>
@@ -15220,7 +15220,7 @@
         <v>166</v>
       </c>
       <c r="B130" t="n">
-        <v>132489</v>
+        <v>163283</v>
       </c>
       <c r="C130" t="s">
         <v>1094</v>
@@ -15285,7 +15285,7 @@
         <v>166</v>
       </c>
       <c r="B131" t="n">
-        <v>132490</v>
+        <v>163284</v>
       </c>
       <c r="C131" t="s">
         <v>1100</v>
@@ -15354,7 +15354,7 @@
         <v>166</v>
       </c>
       <c r="B132" t="n">
-        <v>132491</v>
+        <v>163285</v>
       </c>
       <c r="C132" t="s">
         <v>1109</v>
@@ -15425,7 +15425,7 @@
         <v>166</v>
       </c>
       <c r="B133" t="n">
-        <v>132492</v>
+        <v>163286</v>
       </c>
       <c r="C133" t="s">
         <v>1118</v>
@@ -15707,7 +15707,7 @@
         <v>166</v>
       </c>
       <c r="B137" t="n">
-        <v>132493</v>
+        <v>163287</v>
       </c>
       <c r="C137" t="s">
         <v>1153</v>
@@ -15778,7 +15778,7 @@
         <v>166</v>
       </c>
       <c r="B138" t="n">
-        <v>132494</v>
+        <v>163288</v>
       </c>
       <c r="C138" t="s">
         <v>1163</v>
@@ -15918,7 +15918,7 @@
         <v>166</v>
       </c>
       <c r="B140" t="n">
-        <v>132495</v>
+        <v>163289</v>
       </c>
       <c r="C140" t="s">
         <v>1180</v>
@@ -16054,7 +16054,7 @@
         <v>166</v>
       </c>
       <c r="B142" t="n">
-        <v>132496</v>
+        <v>163290</v>
       </c>
       <c r="C142" t="s">
         <v>1195</v>
@@ -16123,7 +16123,7 @@
         <v>166</v>
       </c>
       <c r="B143" t="n">
-        <v>132497</v>
+        <v>163291</v>
       </c>
       <c r="C143" t="s">
         <v>1204</v>
@@ -16324,7 +16324,7 @@
         <v>166</v>
       </c>
       <c r="B146" t="n">
-        <v>132498</v>
+        <v>163292</v>
       </c>
       <c r="C146" t="s">
         <v>1228</v>
@@ -16395,7 +16395,7 @@
         <v>166</v>
       </c>
       <c r="B147" t="n">
-        <v>132499</v>
+        <v>163293</v>
       </c>
       <c r="C147" t="s">
         <v>1235</v>
@@ -16466,7 +16466,7 @@
         <v>166</v>
       </c>
       <c r="B148" t="n">
-        <v>132500</v>
+        <v>163294</v>
       </c>
       <c r="C148" t="s">
         <v>1242</v>
@@ -16616,7 +16616,7 @@
         <v>166</v>
       </c>
       <c r="B150" t="n">
-        <v>132501</v>
+        <v>163295</v>
       </c>
       <c r="C150" t="s">
         <v>1260</v>
@@ -16691,7 +16691,7 @@
         <v>166</v>
       </c>
       <c r="B151" t="n">
-        <v>132502</v>
+        <v>163296</v>
       </c>
       <c r="C151" t="s">
         <v>1269</v>
@@ -16762,7 +16762,7 @@
         <v>166</v>
       </c>
       <c r="B152" t="n">
-        <v>132503</v>
+        <v>163297</v>
       </c>
       <c r="C152" t="s">
         <v>1275</v>
@@ -16833,7 +16833,7 @@
         <v>166</v>
       </c>
       <c r="B153" t="n">
-        <v>132504</v>
+        <v>163298</v>
       </c>
       <c r="C153" t="s">
         <v>1281</v>
@@ -16904,7 +16904,7 @@
         <v>166</v>
       </c>
       <c r="B154" t="n">
-        <v>132505</v>
+        <v>163299</v>
       </c>
       <c r="C154" t="s">
         <v>1286</v>
@@ -16975,7 +16975,7 @@
         <v>166</v>
       </c>
       <c r="B155" t="n">
-        <v>132506</v>
+        <v>163300</v>
       </c>
       <c r="C155" t="s">
         <v>1292</v>
@@ -17046,7 +17046,7 @@
         <v>166</v>
       </c>
       <c r="B156" t="n">
-        <v>132507</v>
+        <v>163301</v>
       </c>
       <c r="C156" t="s">
         <v>1299</v>
@@ -17192,7 +17192,7 @@
         <v>166</v>
       </c>
       <c r="B158" t="n">
-        <v>132508</v>
+        <v>163302</v>
       </c>
       <c r="C158" t="s">
         <v>1314</v>
@@ -17267,7 +17267,7 @@
         <v>166</v>
       </c>
       <c r="B159" t="n">
-        <v>132509</v>
+        <v>163303</v>
       </c>
       <c r="C159" t="s">
         <v>1324</v>
@@ -17338,7 +17338,7 @@
         <v>166</v>
       </c>
       <c r="B160" t="n">
-        <v>132510</v>
+        <v>163304</v>
       </c>
       <c r="C160" t="s">
         <v>1331</v>
@@ -17413,7 +17413,7 @@
         <v>166</v>
       </c>
       <c r="B161" t="n">
-        <v>132511</v>
+        <v>163305</v>
       </c>
       <c r="C161" t="s">
         <v>1340</v>
@@ -17563,7 +17563,7 @@
         <v>166</v>
       </c>
       <c r="B163" t="n">
-        <v>132512</v>
+        <v>163306</v>
       </c>
       <c r="C163" t="s">
         <v>1359</v>
@@ -17638,7 +17638,7 @@
         <v>166</v>
       </c>
       <c r="B164" t="n">
-        <v>132513</v>
+        <v>163307</v>
       </c>
       <c r="C164" t="s">
         <v>1369</v>
@@ -17839,7 +17839,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="n">
-        <v>132514</v>
+        <v>163308</v>
       </c>
       <c r="C167" t="s">
         <v>1395</v>
@@ -17971,7 +17971,7 @@
         <v>166</v>
       </c>
       <c r="B169" t="n">
-        <v>132515</v>
+        <v>163309</v>
       </c>
       <c r="C169" t="s">
         <v>1407</v>
@@ -18042,7 +18042,7 @@
         <v>166</v>
       </c>
       <c r="B170" t="n">
-        <v>132516</v>
+        <v>163310</v>
       </c>
       <c r="C170" t="s">
         <v>1412</v>
@@ -18170,7 +18170,7 @@
         <v>166</v>
       </c>
       <c r="B172" t="n">
-        <v>132517</v>
+        <v>163311</v>
       </c>
       <c r="C172" t="s">
         <v>1424</v>
@@ -18241,7 +18241,7 @@
         <v>166</v>
       </c>
       <c r="B173" t="n">
-        <v>132518</v>
+        <v>163312</v>
       </c>
       <c r="C173" t="s">
         <v>1431</v>
@@ -18302,7 +18302,7 @@
         <v>166</v>
       </c>
       <c r="B174" t="n">
-        <v>132519</v>
+        <v>163313</v>
       </c>
       <c r="C174" t="s">
         <v>1438</v>
@@ -18373,7 +18373,7 @@
         <v>166</v>
       </c>
       <c r="B175" t="n">
-        <v>132520</v>
+        <v>163314</v>
       </c>
       <c r="C175" t="s">
         <v>1446</v>
@@ -18440,7 +18440,7 @@
         <v>166</v>
       </c>
       <c r="B176" t="n">
-        <v>132521</v>
+        <v>163315</v>
       </c>
       <c r="C176" t="s">
         <v>1453</v>
@@ -18511,7 +18511,7 @@
         <v>166</v>
       </c>
       <c r="B177" t="n">
-        <v>132522</v>
+        <v>163316</v>
       </c>
       <c r="C177" t="s">
         <v>1461</v>
@@ -18582,7 +18582,7 @@
         <v>166</v>
       </c>
       <c r="B178" t="n">
-        <v>132523</v>
+        <v>163317</v>
       </c>
       <c r="C178" t="s">
         <v>1466</v>
@@ -18718,7 +18718,7 @@
         <v>166</v>
       </c>
       <c r="B180" t="n">
-        <v>132524</v>
+        <v>163318</v>
       </c>
       <c r="C180" t="s">
         <v>1479</v>
@@ -18789,7 +18789,7 @@
         <v>166</v>
       </c>
       <c r="B181" t="n">
-        <v>132525</v>
+        <v>163319</v>
       </c>
       <c r="C181" t="s">
         <v>1487</v>
@@ -18925,7 +18925,7 @@
         <v>166</v>
       </c>
       <c r="B183" t="n">
-        <v>132526</v>
+        <v>163320</v>
       </c>
       <c r="C183" t="s">
         <v>1503</v>
@@ -19000,7 +19000,7 @@
         <v>166</v>
       </c>
       <c r="B184" t="n">
-        <v>132527</v>
+        <v>163321</v>
       </c>
       <c r="C184" t="s">
         <v>1512</v>
@@ -19071,7 +19071,7 @@
         <v>166</v>
       </c>
       <c r="B185" t="n">
-        <v>132528</v>
+        <v>163322</v>
       </c>
       <c r="C185" t="s">
         <v>1519</v>
@@ -19142,7 +19142,7 @@
         <v>166</v>
       </c>
       <c r="B186" t="n">
-        <v>132529</v>
+        <v>163323</v>
       </c>
       <c r="C186" t="s">
         <v>1526</v>
@@ -19213,7 +19213,7 @@
         <v>166</v>
       </c>
       <c r="B187" t="n">
-        <v>132530</v>
+        <v>163324</v>
       </c>
       <c r="C187" t="s">
         <v>1531</v>
@@ -19359,7 +19359,7 @@
         <v>166</v>
       </c>
       <c r="B189" t="n">
-        <v>132531</v>
+        <v>163325</v>
       </c>
       <c r="C189" t="s">
         <v>1548</v>
@@ -19430,7 +19430,7 @@
         <v>166</v>
       </c>
       <c r="B190" t="n">
-        <v>132532</v>
+        <v>163326</v>
       </c>
       <c r="C190" t="s">
         <v>1555</v>
@@ -19501,7 +19501,7 @@
         <v>166</v>
       </c>
       <c r="B191" t="n">
-        <v>132533</v>
+        <v>163327</v>
       </c>
       <c r="C191" t="s">
         <v>1561</v>
@@ -19562,7 +19562,7 @@
         <v>166</v>
       </c>
       <c r="B192" t="n">
-        <v>132534</v>
+        <v>163328</v>
       </c>
       <c r="C192" t="s">
         <v>1567</v>
@@ -19633,7 +19633,7 @@
         <v>166</v>
       </c>
       <c r="B193" t="n">
-        <v>132535</v>
+        <v>163329</v>
       </c>
       <c r="C193" t="s">
         <v>1574</v>
@@ -19694,7 +19694,7 @@
         <v>166</v>
       </c>
       <c r="B194" t="n">
-        <v>132536</v>
+        <v>163330</v>
       </c>
       <c r="C194" t="s">
         <v>1582</v>
@@ -19765,7 +19765,7 @@
         <v>166</v>
       </c>
       <c r="B195" t="n">
-        <v>132537</v>
+        <v>163331</v>
       </c>
       <c r="C195" t="s">
         <v>1589</v>
@@ -19907,7 +19907,7 @@
         <v>166</v>
       </c>
       <c r="B197" t="n">
-        <v>132538</v>
+        <v>163332</v>
       </c>
       <c r="C197" t="s">
         <v>1603</v>
@@ -20049,7 +20049,7 @@
         <v>166</v>
       </c>
       <c r="B199" t="n">
-        <v>132539</v>
+        <v>163333</v>
       </c>
       <c r="C199" t="s">
         <v>1616</v>
@@ -20120,7 +20120,7 @@
         <v>166</v>
       </c>
       <c r="B200" t="n">
-        <v>132540</v>
+        <v>163334</v>
       </c>
       <c r="C200" t="s">
         <v>1622</v>
@@ -20191,7 +20191,7 @@
         <v>166</v>
       </c>
       <c r="B201" t="n">
-        <v>132541</v>
+        <v>163335</v>
       </c>
       <c r="C201" t="s">
         <v>1630</v>
@@ -20262,7 +20262,7 @@
         <v>166</v>
       </c>
       <c r="B202" t="n">
-        <v>132542</v>
+        <v>163336</v>
       </c>
       <c r="C202" t="s">
         <v>1637</v>
@@ -20400,7 +20400,7 @@
         <v>166</v>
       </c>
       <c r="B204" t="n">
-        <v>132543</v>
+        <v>163337</v>
       </c>
       <c r="C204" t="s">
         <v>1652</v>
@@ -20461,7 +20461,7 @@
         <v>166</v>
       </c>
       <c r="B205" t="n">
-        <v>132544</v>
+        <v>163338</v>
       </c>
       <c r="C205" t="s">
         <v>1659</v>
@@ -20532,7 +20532,7 @@
         <v>166</v>
       </c>
       <c r="B206" t="n">
-        <v>132545</v>
+        <v>163339</v>
       </c>
       <c r="C206" t="s">
         <v>1665</v>
@@ -20593,7 +20593,7 @@
         <v>166</v>
       </c>
       <c r="B207" t="n">
-        <v>132546</v>
+        <v>163340</v>
       </c>
       <c r="C207" t="s">
         <v>1672</v>
@@ -20735,7 +20735,7 @@
         <v>166</v>
       </c>
       <c r="B209" t="n">
-        <v>132547</v>
+        <v>163341</v>
       </c>
       <c r="C209" t="s">
         <v>1685</v>
@@ -20806,7 +20806,7 @@
         <v>166</v>
       </c>
       <c r="B210" t="n">
-        <v>132548</v>
+        <v>163342</v>
       </c>
       <c r="C210" t="s">
         <v>1692</v>
@@ -20877,7 +20877,7 @@
         <v>166</v>
       </c>
       <c r="B211" t="n">
-        <v>132549</v>
+        <v>163343</v>
       </c>
       <c r="C211" t="s">
         <v>1698</v>
@@ -20952,7 +20952,7 @@
         <v>166</v>
       </c>
       <c r="B212" t="n">
-        <v>132550</v>
+        <v>163344</v>
       </c>
       <c r="C212" t="s">
         <v>1707</v>
@@ -21023,7 +21023,7 @@
         <v>166</v>
       </c>
       <c r="B213" t="n">
-        <v>132551</v>
+        <v>163345</v>
       </c>
       <c r="C213" t="s">
         <v>1714</v>
@@ -21094,7 +21094,7 @@
         <v>166</v>
       </c>
       <c r="B214" t="n">
-        <v>132552</v>
+        <v>163346</v>
       </c>
       <c r="C214" t="s">
         <v>1721</v>
@@ -21165,7 +21165,7 @@
         <v>166</v>
       </c>
       <c r="B215" t="n">
-        <v>132553</v>
+        <v>163347</v>
       </c>
       <c r="C215" t="s">
         <v>1728</v>
@@ -21236,7 +21236,7 @@
         <v>166</v>
       </c>
       <c r="B216" t="n">
-        <v>132554</v>
+        <v>163348</v>
       </c>
       <c r="C216" t="s">
         <v>1736</v>
@@ -21307,7 +21307,7 @@
         <v>166</v>
       </c>
       <c r="B217" t="n">
-        <v>132555</v>
+        <v>163349</v>
       </c>
       <c r="C217" t="s">
         <v>1744</v>
@@ -21378,7 +21378,7 @@
         <v>166</v>
       </c>
       <c r="B218" t="n">
-        <v>132556</v>
+        <v>163350</v>
       </c>
       <c r="C218" t="s">
         <v>1750</v>
@@ -21449,7 +21449,7 @@
         <v>166</v>
       </c>
       <c r="B219" t="n">
-        <v>132557</v>
+        <v>163351</v>
       </c>
       <c r="C219" t="s">
         <v>1758</v>
@@ -21520,7 +21520,7 @@
         <v>166</v>
       </c>
       <c r="B220" t="n">
-        <v>132558</v>
+        <v>163352</v>
       </c>
       <c r="C220" t="s">
         <v>1765</v>
@@ -21591,7 +21591,7 @@
         <v>166</v>
       </c>
       <c r="B221" t="n">
-        <v>132559</v>
+        <v>163353</v>
       </c>
       <c r="C221" t="s">
         <v>1772</v>
@@ -21733,7 +21733,7 @@
         <v>166</v>
       </c>
       <c r="B223" t="n">
-        <v>132560</v>
+        <v>163354</v>
       </c>
       <c r="C223" t="s">
         <v>1786</v>
@@ -21871,7 +21871,7 @@
         <v>166</v>
       </c>
       <c r="B225" t="n">
-        <v>132561</v>
+        <v>163355</v>
       </c>
       <c r="C225" t="s">
         <v>1801</v>
@@ -21938,7 +21938,7 @@
         <v>166</v>
       </c>
       <c r="B226" t="n">
-        <v>132562</v>
+        <v>163356</v>
       </c>
       <c r="C226" t="s">
         <v>1807</v>
@@ -22005,7 +22005,7 @@
         <v>166</v>
       </c>
       <c r="B227" t="n">
-        <v>132563</v>
+        <v>163357</v>
       </c>
       <c r="C227" t="s">
         <v>1814</v>
@@ -22076,7 +22076,7 @@
         <v>166</v>
       </c>
       <c r="B228" t="n">
-        <v>132564</v>
+        <v>163358</v>
       </c>
       <c r="C228" t="s">
         <v>1821</v>
@@ -22139,7 +22139,7 @@
         <v>166</v>
       </c>
       <c r="B229" t="n">
-        <v>132565</v>
+        <v>163359</v>
       </c>
       <c r="C229" t="s">
         <v>1829</v>
@@ -22210,7 +22210,7 @@
         <v>166</v>
       </c>
       <c r="B230" t="n">
-        <v>132566</v>
+        <v>163360</v>
       </c>
       <c r="C230" t="s">
         <v>1837</v>
@@ -22281,7 +22281,7 @@
         <v>166</v>
       </c>
       <c r="B231" t="n">
-        <v>132567</v>
+        <v>163361</v>
       </c>
       <c r="C231" t="s">
         <v>1845</v>
@@ -22423,7 +22423,7 @@
         <v>166</v>
       </c>
       <c r="B233" t="n">
-        <v>132568</v>
+        <v>163362</v>
       </c>
       <c r="C233" t="s">
         <v>1858</v>
@@ -22494,7 +22494,7 @@
         <v>166</v>
       </c>
       <c r="B234" t="n">
-        <v>132569</v>
+        <v>163363</v>
       </c>
       <c r="C234" t="s">
         <v>1865</v>
@@ -22555,7 +22555,7 @@
         <v>166</v>
       </c>
       <c r="B235" t="n">
-        <v>132570</v>
+        <v>163364</v>
       </c>
       <c r="C235" t="s">
         <v>1873</v>
@@ -22626,7 +22626,7 @@
         <v>166</v>
       </c>
       <c r="B236" t="n">
-        <v>132571</v>
+        <v>163365</v>
       </c>
       <c r="C236" t="s">
         <v>1881</v>
@@ -22697,7 +22697,7 @@
         <v>166</v>
       </c>
       <c r="B237" t="n">
-        <v>132572</v>
+        <v>163366</v>
       </c>
       <c r="C237" t="s">
         <v>1889</v>
@@ -22768,7 +22768,7 @@
         <v>166</v>
       </c>
       <c r="B238" t="n">
-        <v>132573</v>
+        <v>163367</v>
       </c>
       <c r="C238" t="s">
         <v>1895</v>
@@ -22910,7 +22910,7 @@
         <v>166</v>
       </c>
       <c r="B240" t="n">
-        <v>132574</v>
+        <v>163368</v>
       </c>
       <c r="C240" t="s">
         <v>1909</v>
@@ -22981,7 +22981,7 @@
         <v>166</v>
       </c>
       <c r="B241" t="n">
-        <v>132575</v>
+        <v>163369</v>
       </c>
       <c r="C241" t="s">
         <v>1916</v>
@@ -23042,7 +23042,7 @@
         <v>166</v>
       </c>
       <c r="B242" t="n">
-        <v>132576</v>
+        <v>163370</v>
       </c>
       <c r="C242" t="s">
         <v>1923</v>
@@ -23113,7 +23113,7 @@
         <v>166</v>
       </c>
       <c r="B243" t="n">
-        <v>132577</v>
+        <v>163371</v>
       </c>
       <c r="C243" t="s">
         <v>1931</v>
@@ -23184,7 +23184,7 @@
         <v>166</v>
       </c>
       <c r="B244" t="n">
-        <v>132578</v>
+        <v>163372</v>
       </c>
       <c r="C244" t="s">
         <v>1938</v>
@@ -23255,7 +23255,7 @@
         <v>166</v>
       </c>
       <c r="B245" t="n">
-        <v>132579</v>
+        <v>163373</v>
       </c>
       <c r="C245" t="s">
         <v>1945</v>
@@ -23326,7 +23326,7 @@
         <v>166</v>
       </c>
       <c r="B246" t="n">
-        <v>132580</v>
+        <v>163374</v>
       </c>
       <c r="C246" t="s">
         <v>1951</v>
@@ -23397,7 +23397,7 @@
         <v>166</v>
       </c>
       <c r="B247" t="n">
-        <v>132581</v>
+        <v>163375</v>
       </c>
       <c r="C247" t="s">
         <v>1958</v>
@@ -23468,7 +23468,7 @@
         <v>166</v>
       </c>
       <c r="B248" t="n">
-        <v>132582</v>
+        <v>163376</v>
       </c>
       <c r="C248" t="s">
         <v>1965</v>
@@ -23539,7 +23539,7 @@
         <v>166</v>
       </c>
       <c r="B249" t="n">
-        <v>132583</v>
+        <v>163377</v>
       </c>
       <c r="C249" t="s">
         <v>1972</v>
@@ -23610,7 +23610,7 @@
         <v>166</v>
       </c>
       <c r="B250" t="n">
-        <v>132584</v>
+        <v>163378</v>
       </c>
       <c r="C250" t="s">
         <v>1979</v>
@@ -23681,7 +23681,7 @@
         <v>166</v>
       </c>
       <c r="B251" t="n">
-        <v>132585</v>
+        <v>163379</v>
       </c>
       <c r="C251" t="s">
         <v>1987</v>
@@ -23738,7 +23738,7 @@
         <v>166</v>
       </c>
       <c r="B252" t="n">
-        <v>132586</v>
+        <v>163380</v>
       </c>
       <c r="C252" t="s">
         <v>1993</v>
@@ -23803,7 +23803,7 @@
         <v>166</v>
       </c>
       <c r="B253" t="n">
-        <v>132587</v>
+        <v>163381</v>
       </c>
       <c r="C253" t="s">
         <v>2000</v>
@@ -23860,7 +23860,7 @@
         <v>166</v>
       </c>
       <c r="B254" t="n">
-        <v>132588</v>
+        <v>163382</v>
       </c>
       <c r="C254" t="s">
         <v>2006</v>
@@ -23974,7 +23974,7 @@
         <v>166</v>
       </c>
       <c r="B256" t="n">
-        <v>132589</v>
+        <v>163383</v>
       </c>
       <c r="C256" t="s">
         <v>2019</v>
